--- a/MSCI 446 Data Clean Up.xlsx
+++ b/MSCI 446 Data Clean Up.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
     <sheet name="Songs" sheetId="2" r:id="rId2"/>
+    <sheet name="For Python" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'For Python'!$A$1:$B$685</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form responses 1'!$A$1:$N$235</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Songs!$A$1:$E$703</definedName>
   </definedNames>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3761" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4447" uniqueCount="1311">
   <si>
     <t>Timestamp</t>
   </si>
@@ -14751,9 +14753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F703"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E703"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -26725,4 +26727,5505 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B685"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>104</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>221</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>79</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>176</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>69</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>44</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>215</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>77</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>234</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>218</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>110</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>117</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>104</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>143</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>33</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>160</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>181</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>147</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>174</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>212</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>205</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>56</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>40</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>138</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>218</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>152</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>72</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>82</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>117</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>202</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>103</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>159</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>52</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>140</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>172</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>230</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>73</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>71</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>179</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>139</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>174</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>154</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>125</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>112</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>230</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>221</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>173</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>209</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>47</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>178</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>141</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>163</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>92</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>32</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>36</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>95</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>191</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>37</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>170</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>23</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>187</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>112</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>159</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>102</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>213</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>93</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>58</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>188</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>53</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>130</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>195</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>22</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>220</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>42</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>158</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>178</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>56</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>216</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>169</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>70</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>114</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>180</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>229</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>146</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>66</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>162</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>45</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>183</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>19</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>43</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>96</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>97</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>34</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>86</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>64</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>149</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>154</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>44</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>138</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>227</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>100</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>30</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>121</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>27</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>118</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>113</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>197</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>225</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>108</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>65</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>180</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>44</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>206</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>118</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>45</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>99</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>105</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>162</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>81</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>48</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>24</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>199</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>102</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>65</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>118</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>78</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>37</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>234</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>120</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>125</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>38</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>23</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>134</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>216</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>210</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>165</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>28</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>149</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>26</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>122</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>73</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>23</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>222</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>228</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>160</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>127</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>72</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>22</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>150</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>233</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>220</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>177</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>128</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>179</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>156</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>140</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>166</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>86</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>34</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>77</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>150</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>75</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>202</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>64</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>55</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>221</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>59</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>196</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>160</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>108</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>209</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>129</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>12</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>171</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>69</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>191</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>217</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>222</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>217</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>136</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>234</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>166</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>28</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>132</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>164</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>187</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>32</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>74</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>18</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>161</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>66</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>151</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>170</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>109</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>80</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>157</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>156</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>134</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>100</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>43</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>36</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>3</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>61</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>78</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>93</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>71</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>215</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>214</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>53</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>133</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>194</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>143</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>51</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>12</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>52</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>48</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>126</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>185</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>94</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>168</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>210</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>81</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>144</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>92</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>116</v>
+      </c>
+      <c r="B247" s="10" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>180</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>110</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>214</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>196</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>36</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>231</v>
+      </c>
+      <c r="B253" s="10" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>137</v>
+      </c>
+      <c r="B254" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>28</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>107</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>89</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>208</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>215</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>193</v>
+      </c>
+      <c r="B260" s="10" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>83</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>140</v>
+      </c>
+      <c r="B262" s="10" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>95</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>99</v>
+      </c>
+      <c r="B264" s="10" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>87</v>
+      </c>
+      <c r="B265" s="10" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>189</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>115</v>
+      </c>
+      <c r="B267" s="10" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>169</v>
+      </c>
+      <c r="B268" s="10" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>155</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270" s="10" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>229</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>69</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>211</v>
+      </c>
+      <c r="B273" s="10" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>58</v>
+      </c>
+      <c r="B274" s="10" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>141</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>46</v>
+      </c>
+      <c r="B276" s="10" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>141</v>
+      </c>
+      <c r="B277" s="10" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>46</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>189</v>
+      </c>
+      <c r="B279" s="10" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>63</v>
+      </c>
+      <c r="B280" s="10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>128</v>
+      </c>
+      <c r="B281" s="10" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>224</v>
+      </c>
+      <c r="B282" s="10" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>115</v>
+      </c>
+      <c r="B283" s="10" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>47</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>186</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>216</v>
+      </c>
+      <c r="B286" s="10" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>11</v>
+      </c>
+      <c r="B287" s="10" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>144</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>186</v>
+      </c>
+      <c r="B289" s="10" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>231</v>
+      </c>
+      <c r="B290" s="10" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>146</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>46</v>
+      </c>
+      <c r="B292" s="10" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>232</v>
+      </c>
+      <c r="B293" s="10" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>145</v>
+      </c>
+      <c r="B294" s="10" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>101</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>13</v>
+      </c>
+      <c r="B296" s="10" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>45</v>
+      </c>
+      <c r="B297" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>167</v>
+      </c>
+      <c r="B298" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>207</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>126</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>22</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>200</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>105</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>147</v>
+      </c>
+      <c r="B304" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>181</v>
+      </c>
+      <c r="B305" s="10" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>98</v>
+      </c>
+      <c r="B306" s="10" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>148</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>127</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>229</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>192</v>
+      </c>
+      <c r="B310" s="10" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>61</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>188</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>74</v>
+      </c>
+      <c r="B313" s="10" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>25</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>194</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>172</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>10</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>203</v>
+      </c>
+      <c r="B318" s="10" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>211</v>
+      </c>
+      <c r="B319" s="10" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>158</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>200</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>167</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>67</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>68</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>68</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>99</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>15</v>
+      </c>
+      <c r="B327" s="10" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>98</v>
+      </c>
+      <c r="B328" s="10" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>107</v>
+      </c>
+      <c r="B329" s="10" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>59</v>
+      </c>
+      <c r="B330" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>173</v>
+      </c>
+      <c r="B331" s="10" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>17</v>
+      </c>
+      <c r="B332" s="10" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>170</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>56</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>232</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>139</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>17</v>
+      </c>
+      <c r="B337" s="10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>153</v>
+      </c>
+      <c r="B338" s="10" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>110</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>98</v>
+      </c>
+      <c r="B340" s="10" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>80</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>224</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>228</v>
+      </c>
+      <c r="B343" s="10" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>11</v>
+      </c>
+      <c r="B344" s="10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>9</v>
+      </c>
+      <c r="B345" s="10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>88</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>6</v>
+      </c>
+      <c r="B347" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>114</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>223</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>182</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>67</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>233</v>
+      </c>
+      <c r="B352" s="10" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>107</v>
+      </c>
+      <c r="B353" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>67</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>3</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>148</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>168</v>
+      </c>
+      <c r="B357" s="10" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>133</v>
+      </c>
+      <c r="B358" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>206</v>
+      </c>
+      <c r="B359" s="10" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>49</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>43</v>
+      </c>
+      <c r="B361" s="10" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>120</v>
+      </c>
+      <c r="B362" s="10" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>124</v>
+      </c>
+      <c r="B363" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>132</v>
+      </c>
+      <c r="B364" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>201</v>
+      </c>
+      <c r="B365" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>152</v>
+      </c>
+      <c r="B366" s="10" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>55</v>
+      </c>
+      <c r="B367" s="10" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>19</v>
+      </c>
+      <c r="B368" s="10" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>209</v>
+      </c>
+      <c r="B369" s="10" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20</v>
+      </c>
+      <c r="B370" s="10" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>193</v>
+      </c>
+      <c r="B371" s="10" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>224</v>
+      </c>
+      <c r="B372" s="10" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>60</v>
+      </c>
+      <c r="B373" s="10" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>208</v>
+      </c>
+      <c r="B374" s="10" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>178</v>
+      </c>
+      <c r="B375" s="10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>20</v>
+      </c>
+      <c r="B376" s="10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>55</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>4</v>
+      </c>
+      <c r="B378" s="10" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>29</v>
+      </c>
+      <c r="B379" s="10" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>26</v>
+      </c>
+      <c r="B380" s="10" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>37</v>
+      </c>
+      <c r="B381" s="10" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>179</v>
+      </c>
+      <c r="B382" s="10" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>204</v>
+      </c>
+      <c r="B383" s="10" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>66</v>
+      </c>
+      <c r="B384" s="10" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>114</v>
+      </c>
+      <c r="B385" s="10" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>6</v>
+      </c>
+      <c r="B386" s="10" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>13</v>
+      </c>
+      <c r="B387" s="10" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>138</v>
+      </c>
+      <c r="B388" s="10" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>5</v>
+      </c>
+      <c r="B389" s="10" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>217</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>171</v>
+      </c>
+      <c r="B391" s="10" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>133</v>
+      </c>
+      <c r="B392" s="10" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>119</v>
+      </c>
+      <c r="B393" s="10" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>35</v>
+      </c>
+      <c r="B394" s="10" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>177</v>
+      </c>
+      <c r="B395" s="10" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>9</v>
+      </c>
+      <c r="B396" s="10" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>88</v>
+      </c>
+      <c r="B397" s="10" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>103</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>2</v>
+      </c>
+      <c r="B399" s="10" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>148</v>
+      </c>
+      <c r="B400" s="10" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>175</v>
+      </c>
+      <c r="B401" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>85</v>
+      </c>
+      <c r="B402" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>15</v>
+      </c>
+      <c r="B403" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>62</v>
+      </c>
+      <c r="B404" s="10" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>49</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>52</v>
+      </c>
+      <c r="B406" s="10" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>11</v>
+      </c>
+      <c r="B407" s="10" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>132</v>
+      </c>
+      <c r="B408" s="10" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>157</v>
+      </c>
+      <c r="B409" s="10" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>214</v>
+      </c>
+      <c r="B410" s="10" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>123</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>112</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>204</v>
+      </c>
+      <c r="B413" s="10" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>91</v>
+      </c>
+      <c r="B414" s="10" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>122</v>
+      </c>
+      <c r="B415" s="10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>129</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>196</v>
+      </c>
+      <c r="B417" s="10" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>226</v>
+      </c>
+      <c r="B418" s="10" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>78</v>
+      </c>
+      <c r="B419" s="10" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>27</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>124</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>181</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>14</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>147</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>7</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>100</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>101</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>186</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>153</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>63</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>127</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>211</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>176</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>142</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>87</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>168</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>184</v>
+      </c>
+      <c r="B437" s="10" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>15</v>
+      </c>
+      <c r="B438" s="10" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>29</v>
+      </c>
+      <c r="B439" s="10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>40</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>143</v>
+      </c>
+      <c r="B441" s="10" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>139</v>
+      </c>
+      <c r="B442" s="10" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>219</v>
+      </c>
+      <c r="B443" s="10" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>77</v>
+      </c>
+      <c r="B444" s="10" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>51</v>
+      </c>
+      <c r="B445" s="10" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>151</v>
+      </c>
+      <c r="B446" s="10" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>84</v>
+      </c>
+      <c r="B447" s="10" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>188</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>175</v>
+      </c>
+      <c r="B449" s="10" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>134</v>
+      </c>
+      <c r="B450" s="10" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>183</v>
+      </c>
+      <c r="B451" s="10" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>103</v>
+      </c>
+      <c r="B452" s="10" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>31</v>
+      </c>
+      <c r="B453" s="10" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>2</v>
+      </c>
+      <c r="B454" s="10" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>105</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>94</v>
+      </c>
+      <c r="B456" s="10" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>91</v>
+      </c>
+      <c r="B457" s="10" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>50</v>
+      </c>
+      <c r="B458" s="10" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>205</v>
+      </c>
+      <c r="B459" s="10" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>233</v>
+      </c>
+      <c r="B460" s="10" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>201</v>
+      </c>
+      <c r="B461" s="10" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>89</v>
+      </c>
+      <c r="B462" s="10" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>94</v>
+      </c>
+      <c r="B463" s="10" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>17</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>35</v>
+      </c>
+      <c r="B465" s="10" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>9</v>
+      </c>
+      <c r="B466" s="10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>88</v>
+      </c>
+      <c r="B467" s="10" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>159</v>
+      </c>
+      <c r="B468" s="10" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>48</v>
+      </c>
+      <c r="B469" s="10" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>199</v>
+      </c>
+      <c r="B470" s="10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>117</v>
+      </c>
+      <c r="B471" s="10" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>175</v>
+      </c>
+      <c r="B472" s="10" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>84</v>
+      </c>
+      <c r="B473" s="10" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>21</v>
+      </c>
+      <c r="B474" s="10" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>83</v>
+      </c>
+      <c r="B475" s="10" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>50</v>
+      </c>
+      <c r="B476" s="10" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>32</v>
+      </c>
+      <c r="B477" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>130</v>
+      </c>
+      <c r="B478" s="10" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>122</v>
+      </c>
+      <c r="B479" s="10" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>187</v>
+      </c>
+      <c r="B480" s="10" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>89</v>
+      </c>
+      <c r="B481" s="10" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>131</v>
+      </c>
+      <c r="B482" s="10" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>130</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>96</v>
+      </c>
+      <c r="B484" s="10" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>39</v>
+      </c>
+      <c r="B485" s="10" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>192</v>
+      </c>
+      <c r="B486" s="10" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>8</v>
+      </c>
+      <c r="B487" s="10" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>71</v>
+      </c>
+      <c r="B488" s="10" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>128</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>85</v>
+      </c>
+      <c r="B490" s="10" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>111</v>
+      </c>
+      <c r="B491" s="10" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>125</v>
+      </c>
+      <c r="B492" s="10" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>90</v>
+      </c>
+      <c r="B493" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>223</v>
+      </c>
+      <c r="B494" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>41</v>
+      </c>
+      <c r="B495" s="10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>73</v>
+      </c>
+      <c r="B496" s="10" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>38</v>
+      </c>
+      <c r="B497" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>150</v>
+      </c>
+      <c r="B498" s="10" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>195</v>
+      </c>
+      <c r="B499" s="10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>49</v>
+      </c>
+      <c r="B500" s="10" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>145</v>
+      </c>
+      <c r="B501" s="10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>194</v>
+      </c>
+      <c r="B502" s="10" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>166</v>
+      </c>
+      <c r="B503" s="10" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>54</v>
+      </c>
+      <c r="B504" s="10" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>63</v>
+      </c>
+      <c r="B505" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>76</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>116</v>
+      </c>
+      <c r="B507" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>197</v>
+      </c>
+      <c r="B508" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>60</v>
+      </c>
+      <c r="B509" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>57</v>
+      </c>
+      <c r="B510" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>51</v>
+      </c>
+      <c r="B511" s="10" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>79</v>
+      </c>
+      <c r="B512" s="10" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>207</v>
+      </c>
+      <c r="B513" s="10" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>203</v>
+      </c>
+      <c r="B514" s="10" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>59</v>
+      </c>
+      <c r="B515" s="10" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>135</v>
+      </c>
+      <c r="B516" s="10" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>155</v>
+      </c>
+      <c r="B517" s="10" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>167</v>
+      </c>
+      <c r="B518" s="10" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>74</v>
+      </c>
+      <c r="B519" s="10" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>164</v>
+      </c>
+      <c r="B520" s="10" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>156</v>
+      </c>
+      <c r="B521" s="10" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>144</v>
+      </c>
+      <c r="B522" s="10" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>149</v>
+      </c>
+      <c r="B523" s="10" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>39</v>
+      </c>
+      <c r="B524" s="10" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>106</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>131</v>
+      </c>
+      <c r="B526" s="10" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>225</v>
+      </c>
+      <c r="B527" s="10" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>190</v>
+      </c>
+      <c r="B528" s="10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>232</v>
+      </c>
+      <c r="B529" s="10" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>82</v>
+      </c>
+      <c r="B530" s="10" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>14</v>
+      </c>
+      <c r="B531" s="10" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>137</v>
+      </c>
+      <c r="B532" s="10" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>172</v>
+      </c>
+      <c r="B533" s="10" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>195</v>
+      </c>
+      <c r="B534" s="10" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>33</v>
+      </c>
+      <c r="B535" s="10" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>164</v>
+      </c>
+      <c r="B536" s="10" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>54</v>
+      </c>
+      <c r="B537" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>106</v>
+      </c>
+      <c r="B538" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>47</v>
+      </c>
+      <c r="B539" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>162</v>
+      </c>
+      <c r="B540" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>165</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>102</v>
+      </c>
+      <c r="B542" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>116</v>
+      </c>
+      <c r="B543" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>137</v>
+      </c>
+      <c r="B544" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>184</v>
+      </c>
+      <c r="B545" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>203</v>
+      </c>
+      <c r="B546" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>225</v>
+      </c>
+      <c r="B547" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>119</v>
+      </c>
+      <c r="B548" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>7</v>
+      </c>
+      <c r="B549" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>64</v>
+      </c>
+      <c r="B550" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>76</v>
+      </c>
+      <c r="B551" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>123</v>
+      </c>
+      <c r="B552" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>202</v>
+      </c>
+      <c r="B553" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>38</v>
+      </c>
+      <c r="B554" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>161</v>
+      </c>
+      <c r="B555" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>230</v>
+      </c>
+      <c r="B556" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>83</v>
+      </c>
+      <c r="B557" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>189</v>
+      </c>
+      <c r="B558" s="10" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>80</v>
+      </c>
+      <c r="B559" s="10" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>205</v>
+      </c>
+      <c r="B560" s="10" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>91</v>
+      </c>
+      <c r="B561" s="10" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>109</v>
+      </c>
+      <c r="B562" s="10" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>21</v>
+      </c>
+      <c r="B563" s="10" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>223</v>
+      </c>
+      <c r="B564" s="10" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>120</v>
+      </c>
+      <c r="B565" s="10" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>145</v>
+      </c>
+      <c r="B566" s="10" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>75</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>5</v>
+      </c>
+      <c r="B568" s="10" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>14</v>
+      </c>
+      <c r="B569" s="10" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>68</v>
+      </c>
+      <c r="B570" s="10" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>82</v>
+      </c>
+      <c r="B571" s="10" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>85</v>
+      </c>
+      <c r="B572" s="10" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>53</v>
+      </c>
+      <c r="B573" s="10" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>182</v>
+      </c>
+      <c r="B574" s="10" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>18</v>
+      </c>
+      <c r="B575" s="10" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>199</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>161</v>
+      </c>
+      <c r="B577" s="10" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>33</v>
+      </c>
+      <c r="B578" s="10" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>90</v>
+      </c>
+      <c r="B579" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>152</v>
+      </c>
+      <c r="B580" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>41</v>
+      </c>
+      <c r="B581" s="10" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>84</v>
+      </c>
+      <c r="B582" s="10" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>226</v>
+      </c>
+      <c r="B583" s="10" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>204</v>
+      </c>
+      <c r="B584" s="10" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>104</v>
+      </c>
+      <c r="B585" s="10" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>165</v>
+      </c>
+      <c r="B586" s="10" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>108</v>
+      </c>
+      <c r="B587" s="10" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>109</v>
+      </c>
+      <c r="B588" s="10" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>62</v>
+      </c>
+      <c r="B589" s="10" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>39</v>
+      </c>
+      <c r="B590" s="10" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>24</v>
+      </c>
+      <c r="B591" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>61</v>
+      </c>
+      <c r="B592" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>155</v>
+      </c>
+      <c r="B593" s="10" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>192</v>
+      </c>
+      <c r="B594" s="10" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>111</v>
+      </c>
+      <c r="B595" s="10" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>86</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>119</v>
+      </c>
+      <c r="B597" s="10" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>58</v>
+      </c>
+      <c r="B598" s="10" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>213</v>
+      </c>
+      <c r="B599" s="10" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>129</v>
+      </c>
+      <c r="B600" s="10" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>50</v>
+      </c>
+      <c r="B601" s="10" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>176</v>
+      </c>
+      <c r="B602" s="10" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>3</v>
+      </c>
+      <c r="B603" s="10" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>151</v>
+      </c>
+      <c r="B604" s="10" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>220</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>177</v>
+      </c>
+      <c r="B606" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>200</v>
+      </c>
+      <c r="B607" s="10" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>70</v>
+      </c>
+      <c r="B608" s="10" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>113</v>
+      </c>
+      <c r="B609" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>218</v>
+      </c>
+      <c r="B610" s="10" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>153</v>
+      </c>
+      <c r="B611" s="10" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>201</v>
+      </c>
+      <c r="B612" s="10" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>16</v>
+      </c>
+      <c r="B613" s="10" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>193</v>
+      </c>
+      <c r="B614" s="10" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>25</v>
+      </c>
+      <c r="B615" s="10" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>182</v>
+      </c>
+      <c r="B616" s="10" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>7</v>
+      </c>
+      <c r="B617" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>208</v>
+      </c>
+      <c r="B618" s="10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>191</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>124</v>
+      </c>
+      <c r="B620" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>90</v>
+      </c>
+      <c r="B621" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>1</v>
+      </c>
+      <c r="B622" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>135</v>
+      </c>
+      <c r="B623" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>184</v>
+      </c>
+      <c r="B624" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>41</v>
+      </c>
+      <c r="B625" s="10" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>79</v>
+      </c>
+      <c r="B626" s="10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>219</v>
+      </c>
+      <c r="B627" s="10" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>136</v>
+      </c>
+      <c r="B628" s="10" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>26</v>
+      </c>
+      <c r="B629" s="10" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>42</v>
+      </c>
+      <c r="B630" s="10" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>121</v>
+      </c>
+      <c r="B631" s="10" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>30</v>
+      </c>
+      <c r="B632" s="10" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>210</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>1</v>
+      </c>
+      <c r="B634" s="10" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>163</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>163</v>
+      </c>
+      <c r="B636" s="10" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>158</v>
+      </c>
+      <c r="B637" s="10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>35</v>
+      </c>
+      <c r="B638" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>19</v>
+      </c>
+      <c r="B639" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>222</v>
+      </c>
+      <c r="B640" s="10" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>131</v>
+      </c>
+      <c r="B641" s="10" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>93</v>
+      </c>
+      <c r="B642" s="10" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>227</v>
+      </c>
+      <c r="B643" s="10" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>174</v>
+      </c>
+      <c r="B644" s="10" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>29</v>
+      </c>
+      <c r="B645" s="10" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>142</v>
+      </c>
+      <c r="B646" s="10" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>18</v>
+      </c>
+      <c r="B647" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>206</v>
+      </c>
+      <c r="B648" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>123</v>
+      </c>
+      <c r="B649" s="10" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>81</v>
+      </c>
+      <c r="B650" s="10" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>185</v>
+      </c>
+      <c r="B651" s="10" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>207</v>
+      </c>
+      <c r="B652" s="10" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>16</v>
+      </c>
+      <c r="B653" s="10" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>54</v>
+      </c>
+      <c r="B654" s="10" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>190</v>
+      </c>
+      <c r="B655" s="10" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>13</v>
+      </c>
+      <c r="B656" s="10" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>97</v>
+      </c>
+      <c r="B657" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>121</v>
+      </c>
+      <c r="B658" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>96</v>
+      </c>
+      <c r="B659" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>183</v>
+      </c>
+      <c r="B660" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>75</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>226</v>
+      </c>
+      <c r="B662" s="10" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>136</v>
+      </c>
+      <c r="B663" s="10" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>228</v>
+      </c>
+      <c r="B664" s="10" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>231</v>
+      </c>
+      <c r="B665" s="10" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>135</v>
+      </c>
+      <c r="B666" s="10" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>227</v>
+      </c>
+      <c r="B667" s="10" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>92</v>
+      </c>
+      <c r="B668" s="10" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>157</v>
+      </c>
+      <c r="B669" s="10" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>62</v>
+      </c>
+      <c r="B670" s="10" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>42</v>
+      </c>
+      <c r="B671" s="10" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>57</v>
+      </c>
+      <c r="B672" s="10" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>60</v>
+      </c>
+      <c r="B673" s="10" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>213</v>
+      </c>
+      <c r="B674" s="10" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>169</v>
+      </c>
+      <c r="B675" s="10" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>219</v>
+      </c>
+      <c r="B676" s="10" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>190</v>
+      </c>
+      <c r="B677" s="10" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>146</v>
+      </c>
+      <c r="B678" s="10" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>95</v>
+      </c>
+      <c r="B679" s="10" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>185</v>
+      </c>
+      <c r="B680" s="10" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>171</v>
+      </c>
+      <c r="B681" s="10" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>21</v>
+      </c>
+      <c r="B682" s="10" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>173</v>
+      </c>
+      <c r="B683" s="10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>111</v>
+      </c>
+      <c r="B684" s="10" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>113</v>
+      </c>
+      <c r="B685" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B685"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>